--- a/IndianRailwayTrainEnquiryTC.xlsx
+++ b/IndianRailwayTrainEnquiryTC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knwrp\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B23CA1-290C-4C1B-83EC-E54968EA5F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2EE74C-DE5D-482F-897E-3D00DA9632E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{95E82EF1-D71E-40CF-A61E-395A3AE9F116}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{95E82EF1-D71E-40CF-A61E-395A3AE9F116}"/>
   </bookViews>
   <sheets>
     <sheet name="INDIAN RAILWAY TRAIN SEARCH" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="332">
   <si>
     <t>Test case #</t>
   </si>
@@ -1156,6 +1156,1180 @@
   </si>
   <si>
     <t>HomePage should not be Displayed</t>
+  </si>
+  <si>
+    <t>TC-KSRTC-01</t>
+  </si>
+  <si>
+    <t>Validate KSTRC Search Functionality in KSRTC Homepage</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify whether </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leaving from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> text field is acception Alphanumeric values as input </t>
+    </r>
+  </si>
+  <si>
+    <t>User should be in KSRTC Homepage</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter alphanumeric data in "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leaving from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" text field</t>
+    </r>
+  </si>
+  <si>
+    <t>Banga1235</t>
+  </si>
+  <si>
+    <t>Text field should accept alphanumeric values</t>
+  </si>
+  <si>
+    <t>Text field is accepting alphanumeric values</t>
+  </si>
+  <si>
+    <t>TC-KSRTC-02</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify whether </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leaving from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> text field is accepting any special characters</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.Enter Special characters in "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leaving from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" text field</t>
+    </r>
+  </si>
+  <si>
+    <t>#$%%%^#@</t>
+  </si>
+  <si>
+    <t>Text field should not accept special characters</t>
+  </si>
+  <si>
+    <t>Text field is accepting Special characters</t>
+  </si>
+  <si>
+    <t>TC-KSRTC-03</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify whether </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leaving from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> text field is accepting 256 characters as  input</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter valid input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Curabitur ullamcorper ultricies nisi. Nam eget dui. Etiam rhoncus. Maecenas tempus, tellus eget condimentum rhoncus, sem quam semper libero, sit amet adipiscing sem neque sed ipsum. Nam quam nunc, blandit vel, luctus pulvinar, hendrerit id, lorem. Maecenas nec odio et ante tincidunt tempus. Donec vitae sapien ut libero venenatis faucibus. Nullam quis ante. Etiam sit amet orci eget eros faucibus tincidunt. Duis leo. Sed fringilla mauris sit amet nibh. Donec sodales sagittis magna. Sed consequat, leo eget bibendum sodales, augue velit cursus nunc, quis gravida magna mi a libero. Fusce vulputate eleifend sapien. Vestibulum purus quam, scelerisque ut, mollis sed, nonummy id, metus. Nullam accumsan lorem in dui. Cras ultricies mi eu turpis hendrerit fringilla. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; In ac dui quis mi consectetuer lacinia. Nam pretium turpis et arcu.
+</t>
+  </si>
+  <si>
+    <t>Text field should accept 256 characters as an input</t>
+  </si>
+  <si>
+    <t>Text field is accepting 256 Characters as input</t>
+  </si>
+  <si>
+    <t>TC-KSRTC-04</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify whether </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leaving from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> text field is accepting more than 256 characters as  input</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Curabitur ullamcorper ultricies nisi. Nam eget dui. Etiam rhoncus. Maecenas tempus, tellus eget condimentum rhoncus, sem quam semper libero, sit amet adipiscing sem neque sed ipsum. Nam quam nunc, blandit vel, luctus pulvinar, hendrerit id, lorem. Maecenas nec odio et ante tincidunt tempus. Donec vitae sapien ut libero venenatis faucibus. Nullam quis ante. Etiam sit amet orci eget eros faucibus tincidunt. Duis leo. Sed fringilla mauris sit amet nibh. Donec sodales sagittis magna. Sed consequat, leo eget bibendum sodales, augue velit cursus nunc, quis gravida magna mi a libero. Fusce vulputate eleifend sapien. Vestibulum purus quam, scelerisque ut, mollis sed, nonummy id, metus. Nullam accumsan lorem in dui. Cras ultricies mi eu turpis hendrerit fringilla. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; In ac dui quis mi consectetuer lacinia. Nam pretium turpis et arcuaaaaaaa.
+</t>
+  </si>
+  <si>
+    <t>Text field should not accept more than 256 characters as an input</t>
+  </si>
+  <si>
+    <t>Text field is accepting more than 256 Characters as input</t>
+  </si>
+  <si>
+    <t>TC-KSRTC-05</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leaving from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> text field is only accepting City which is there in database by giving  valid input</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter valid input in "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leaving from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" text field</t>
+    </r>
+  </si>
+  <si>
+    <t>User should is getting added input in auto suggest</t>
+  </si>
+  <si>
+    <t>User is getting added input in auto suggest</t>
+  </si>
+  <si>
+    <t>Need to check in Database</t>
+  </si>
+  <si>
+    <t>TC-KSRTC-06</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leaving from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> text field is only accepting City which is there in database by giving  invalid input</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter invalid input in "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leaving from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" text field</t>
+    </r>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>User should not be getting any auto suggest for the input added</t>
+  </si>
+  <si>
+    <t>User is not getting added input in auto suggest</t>
+  </si>
+  <si>
+    <t>TC-KSRTC-07</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify whether </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Going To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> text field is acception Alphanumeric values as input </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.Enter alphanumeric data in "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Going on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" text field</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-KSRTC-08</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify whether </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Going To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> text field is accepting any special characters</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2..Enter Special characters in "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Going on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" text field</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-KSRTC-09</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify whether </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Going To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> text field is accepting 256 characters as  input</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2..Enter valid input "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Going on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" text field</t>
+    </r>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Curabitur ullamcorper ultricies nisi. Nam eget dui. Etiam rhoncus. Maecenas tempus, tellus eget condimentum rhoncus, sem quam semper libero, sit amet adipiscing sem neque sed ipsum. Nam quam nunc, blandit vel, luctus pulvinar, hendrerit id, lorem. Maecenas nec odio et ante tincidunt tempus. Donec vitae sapien ut libero venenatis faucibus. Nullam quis ante. Etiam sit amet orci eget eros faucibus tincidunt. Duis leo. Sed fringilla mauris sit amet nibh. Donec sodales sagittis magna. Sed consequat, leo eget bibendum sodales, augue velit cursus nunc, quis gravida magna mi a libero. Fusce vulputate eleifend sapien. Vestibulum purus quam, scelerisque ut, mollis sed, nonummy id, metus. Nullam accumsan lorem in dui. Cras ultricies mi eu turpis hendrerit fringilla. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; In ac dui quis mi consectetuer lacinia. Nam pretium turpis et arcu.</t>
+  </si>
+  <si>
+    <t>TC-KSRTC-010</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify whether </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Going To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> text field is accepting more than 256 characters as  input</t>
+    </r>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Curabitur ullamcorper ultricies nisi. Nam eget dui. Etiam rhoncus. Maecenas tempus, tellus eget condimentum rhoncus, sem quam semper libero, sit amet adipiscing sem neque sed ipsum. Nam quam nunc, blandit vel, luctus pulvinar, hendrerit id, lorem. Maecenas nec odio et ante tincidunt tempus. Donec vitae sapien ut libero venenatis faucibus. Nullam quis ante. Etiam sit amet orci eget eros faucibus tincidunt. Duis leo. Sed fringilla mauris sit amet nibh. Donec sodales sagittis magna. Sed consequat, leo eget bibendum sodales, augue velit cursus nunc, quis gravida magna mi a libero. Fusce vulputate eleifend sapien. Vestibulum purus quam, scelerisque ut, mollis sed, nonummy id, metus. Nullam accumsan lorem in dui. Cras ultricies mi eu turpis hendrerit fringilla. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; In ac dui quis mi consectetuer lacinia. Nam pretium turpis et arcurrrrr.</t>
+  </si>
+  <si>
+    <t>TC-KSRTC-11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Going on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> text field i text field is only accepting City which is there in database by giving  valid input</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2..Enter valid city in "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Going on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" text field</t>
+    </r>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>TC-KSRTC-12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Going on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> text field is only accepting City which is there in database by giving  invalid input</t>
+    </r>
+  </si>
+  <si>
+    <t>kolkata</t>
+  </si>
+  <si>
+    <t>TC-KSRTC-13</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date of departure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> text field whether date is displayed in required format or not</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Click on "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date of departure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+  </si>
+  <si>
+    <t>Selected date should be displayed in  DD/MM/YYYY format.</t>
+  </si>
+  <si>
+    <t>User is able to see date in  DD/MM/YYYY format.</t>
+  </si>
+  <si>
+    <t>2.Select a valid date</t>
+  </si>
+  <si>
+    <t>TC-KSRTC-14</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Click on "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date of Return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-KSRTC-15</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date of departure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is allowing  user to select  with a valid date</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to select valid date</t>
+  </si>
+  <si>
+    <t>User is able to select date</t>
+  </si>
+  <si>
+    <t>TC-KSRTC-16</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date of departure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> text field whether its allowing to select back dated date by giving invalid input</t>
+    </r>
+  </si>
+  <si>
+    <t>User should not be able to select backdated date</t>
+  </si>
+  <si>
+    <t>User is notable to select backdated date</t>
+  </si>
+  <si>
+    <t>2.Select a  backdated date</t>
+  </si>
+  <si>
+    <t>TC-KSRTC-17</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date Of Return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is allowing  user to select  with a valid date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Click on "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date Of Return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-KSRTC-18</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date Of Return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> text field whether its allowing to select back dated date by giving invalid input</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-KSRTC-19</t>
+  </si>
+  <si>
+    <t>Verify whether checkbox by selecting it</t>
+  </si>
+  <si>
+    <t>1Click on the checkbox</t>
+  </si>
+  <si>
+    <t>User should be able to select checkbox</t>
+  </si>
+  <si>
+    <t>User should is able to select checkbox</t>
+  </si>
+  <si>
+    <t>TC-KSRTC-20</t>
+  </si>
+  <si>
+    <t>Verify whether checkbox by dselecting it</t>
+  </si>
+  <si>
+    <t>1 uncheck the box</t>
+  </si>
+  <si>
+    <t>User should be able to uncheck the box</t>
+  </si>
+  <si>
+    <t>User is able to uncheck the box</t>
+  </si>
+  <si>
+    <t>TC-KSRTC-21</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validate search functionality by only clicking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>search for bus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.click on "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search for Bus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Search Result page should not displayed/ pop up with "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please select start place.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"is displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Search Result page is not displayed/pop up with "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please select start place</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>." is displayed</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-KSRTC-22</t>
+  </si>
+  <si>
+    <t>Validate search functionality by giving valid inputs</t>
+  </si>
+  <si>
+    <r>
+      <t>1.Enter valid input for "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leaving from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be Search Result page</t>
+  </si>
+  <si>
+    <t>User is in Search result page</t>
+  </si>
+  <si>
+    <r>
+      <t>2.Enter valid input for "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Going to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.Select a valid date for "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date Of Departure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.Select a valid date for "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date Of Return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.Click on "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search for bus"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <t>TC-KSRTC-23</t>
+  </si>
+  <si>
+    <t>Validate search functionality by giving invalid inputs and check whether by selecting furturestic date of depurture , date of return also gets changed to same date or not</t>
+  </si>
+  <si>
+    <t>User should be able to see same date of departure and Return</t>
+  </si>
+  <si>
+    <t>User is able to see same date of departure and return</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +2405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1291,12 +2465,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1319,6 +2506,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1331,31 +2536,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1367,13 +2557,46 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1381,7 +2604,21 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1761,16 +2998,16 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="16" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1779,152 +3016,152 @@
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="2">
         <v>45036</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="16" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1933,152 +3170,152 @@
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="2">
         <v>45036</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="16" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2087,152 +3324,152 @@
       <c r="F20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="2">
         <v>45036</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="16" t="s">
         <v>57</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -2241,150 +3478,150 @@
       <c r="F29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="16" t="s">
         <v>57</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -2393,152 +3630,152 @@
       <c r="F38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
       <c r="E39" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
     </row>
     <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F41" s="2">
         <v>45036</v>
       </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
       <c r="E43" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
       <c r="E44" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
       <c r="E45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
       <c r="E46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="16" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -2547,152 +3784,152 @@
       <c r="F47" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
       <c r="E48" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
       <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
     </row>
     <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
       <c r="E50" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F50" s="8">
         <v>45034</v>
       </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
       <c r="E51" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
       <c r="E52" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
       <c r="E53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
       <c r="E54" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
       <c r="E55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="16" t="s">
         <v>57</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -2701,152 +3938,152 @@
       <c r="F56" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
       <c r="E57" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="12"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
       <c r="E58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
     </row>
     <row r="59" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
       <c r="E59" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
       <c r="E60" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="12"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
       <c r="E61" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="12"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="12"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
       <c r="E63" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
       <c r="E64" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="16" t="s">
         <v>57</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -2855,152 +4092,152 @@
       <c r="F65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G65" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="12"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
       <c r="E66" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="12"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
       <c r="E67" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
     </row>
     <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="12"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
       <c r="E68" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F68" s="2">
         <v>45036</v>
       </c>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="12"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
       <c r="E69" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="12"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
       <c r="E70" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="12"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
       <c r="E71" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="12"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
       <c r="E72" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="13"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
       <c r="E73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="16" t="s">
         <v>57</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -3009,140 +4246,140 @@
       <c r="F74" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G74" s="10" t="s">
+      <c r="G74" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="12"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
+      <c r="A75" s="18"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
       <c r="E75" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="12"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
       <c r="E76" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
     </row>
     <row r="77" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="12"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
       <c r="E77" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F77" s="2">
         <v>45036</v>
       </c>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="12"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
       <c r="E78" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="12"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
       <c r="E79" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="12"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
       <c r="E80" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="12"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
       <c r="E81" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="13"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
       <c r="E82" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E85" s="6"/>
@@ -3153,14 +4390,54 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="I74:I82"/>
-    <mergeCell ref="J74:J82"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="B74:B82"/>
-    <mergeCell ref="C74:C82"/>
-    <mergeCell ref="D74:D82"/>
-    <mergeCell ref="G74:G82"/>
-    <mergeCell ref="H74:H82"/>
+    <mergeCell ref="J2:J10"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="G11:G19"/>
+    <mergeCell ref="H11:H19"/>
+    <mergeCell ref="I11:I19"/>
+    <mergeCell ref="J11:J19"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="H2:H10"/>
+    <mergeCell ref="I2:I10"/>
+    <mergeCell ref="I20:I28"/>
+    <mergeCell ref="J20:J28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="G29:G37"/>
+    <mergeCell ref="H29:H37"/>
+    <mergeCell ref="I29:I37"/>
+    <mergeCell ref="J29:J37"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="G20:G28"/>
+    <mergeCell ref="H20:H28"/>
+    <mergeCell ref="I38:I46"/>
+    <mergeCell ref="J38:J46"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="C47:C55"/>
+    <mergeCell ref="D47:D55"/>
+    <mergeCell ref="G47:G55"/>
+    <mergeCell ref="H47:H55"/>
+    <mergeCell ref="I47:I55"/>
+    <mergeCell ref="J47:J55"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="C38:C46"/>
+    <mergeCell ref="D38:D46"/>
+    <mergeCell ref="G38:G46"/>
+    <mergeCell ref="H38:H46"/>
     <mergeCell ref="I56:I64"/>
     <mergeCell ref="J56:J64"/>
     <mergeCell ref="A65:A73"/>
@@ -3177,54 +4454,14 @@
     <mergeCell ref="D56:D64"/>
     <mergeCell ref="G56:G64"/>
     <mergeCell ref="H56:H64"/>
-    <mergeCell ref="I38:I46"/>
-    <mergeCell ref="J38:J46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="C47:C55"/>
-    <mergeCell ref="D47:D55"/>
-    <mergeCell ref="G47:G55"/>
-    <mergeCell ref="H47:H55"/>
-    <mergeCell ref="I47:I55"/>
-    <mergeCell ref="J47:J55"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="C38:C46"/>
-    <mergeCell ref="D38:D46"/>
-    <mergeCell ref="G38:G46"/>
-    <mergeCell ref="H38:H46"/>
-    <mergeCell ref="I20:I28"/>
-    <mergeCell ref="J20:J28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="G29:G37"/>
-    <mergeCell ref="H29:H37"/>
-    <mergeCell ref="I29:I37"/>
-    <mergeCell ref="J29:J37"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="G20:G28"/>
-    <mergeCell ref="H20:H28"/>
-    <mergeCell ref="J2:J10"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="G11:G19"/>
-    <mergeCell ref="H11:H19"/>
-    <mergeCell ref="I11:I19"/>
-    <mergeCell ref="J11:J19"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="G2:G10"/>
-    <mergeCell ref="H2:H10"/>
-    <mergeCell ref="I2:I10"/>
+    <mergeCell ref="I74:I82"/>
+    <mergeCell ref="J74:J82"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="B74:B82"/>
+    <mergeCell ref="C74:C82"/>
+    <mergeCell ref="D74:D82"/>
+    <mergeCell ref="G74:G82"/>
+    <mergeCell ref="H74:H82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3254,1934 +4491,1971 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="15"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="16" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="16" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="18"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="16" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="18"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="16" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <v>9066549545</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="18"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="16" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="18"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="16" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="18"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="16" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="18"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="16" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="18"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="16" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="21"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="23"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="A12" s="21">
         <v>2</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="16" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="18"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="16" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="18"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="16" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="18"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="16" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="12">
         <v>9066549545</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="18"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="16" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="18"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="16" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="18"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="16" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="18"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="16" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="16" t="s">
+      <c r="F20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="18"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="16" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="16" t="s">
+      <c r="F21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="21"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
+      <c r="A22" s="21">
         <v>3</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="16" t="s">
+      <c r="F22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="15"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="16" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="16" t="s">
+      <c r="F23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="18"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="16" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="16" t="s">
+      <c r="F24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="18"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="22"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="16" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="16" t="s">
+      <c r="F25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="18"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="16" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="16" t="s">
+      <c r="F26" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="18"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="16" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="16" t="s">
+      <c r="F27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="18"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="16" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="16" t="s">
+      <c r="F28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="18"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="16" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" s="20"/>
-      <c r="J29" s="18"/>
+      <c r="F29" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="16" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="18"/>
+      <c r="F30" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="16" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="16" t="s">
+      <c r="F31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="21"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="23"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="15">
+      <c r="A32" s="21">
         <v>4</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="J32" s="15"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="16" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="18"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="22"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="16" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="18"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="22"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="16" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="18"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="22"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="16" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="12">
         <v>9066549545</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="18"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="22"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="16" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="18"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="22"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="16" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="18"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="22"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="16" t="s">
+      <c r="A39" s="21"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I39" s="20"/>
-      <c r="J39" s="18"/>
+      <c r="F39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="28"/>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="16" t="s">
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="16" t="s">
+      <c r="F40" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="18"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="22"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="16" t="s">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F41" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="16" t="s">
+      <c r="F41" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I41" s="22"/>
-      <c r="J41" s="21"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="23"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="15">
+      <c r="A42" s="21">
         <v>5</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="17" t="s">
+      <c r="I42" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J42" s="15"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="16" t="s">
+      <c r="A43" s="21"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="H43" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="18"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="22"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="16" t="s">
+      <c r="A44" s="21"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="18"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="22"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="16" t="s">
+      <c r="A45" s="21"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="H45" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="18"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="22"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="16" t="s">
+      <c r="A46" s="21"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="12">
         <v>9066549545</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I46" s="20"/>
-      <c r="J46" s="18"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="22"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="16" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H47" s="16" t="s">
+      <c r="H47" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="18"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="22"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="16" t="s">
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="H48" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="18"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="22"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="16" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G49" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H49" s="16" t="s">
+      <c r="H49" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I49" s="20"/>
-      <c r="J49" s="18"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="22"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="16" t="s">
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" s="16" t="s">
+      <c r="F50" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="H50" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I50" s="20"/>
-      <c r="J50" s="18"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="22"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="16" t="s">
+      <c r="A51" s="21"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F51" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="16" t="s">
+      <c r="F51" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H51" s="16" t="s">
+      <c r="H51" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I51" s="22"/>
-      <c r="J51" s="21"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="23"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="15">
+      <c r="A52" s="21">
         <v>6</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G52" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H52" s="16" t="s">
+      <c r="H52" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I52" s="17" t="s">
+      <c r="I52" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="J52" s="15"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="16" t="s">
+      <c r="A53" s="21"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G53" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H53" s="16" t="s">
+      <c r="H53" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I53" s="20"/>
-      <c r="J53" s="18"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="22"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="15"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="16" t="s">
+      <c r="A54" s="21"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="G54" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H54" s="16" t="s">
+      <c r="H54" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I54" s="20"/>
-      <c r="J54" s="18"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="22"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="15"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="16" t="s">
+      <c r="A55" s="21"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G55" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H55" s="16" t="s">
+      <c r="H55" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I55" s="20"/>
-      <c r="J55" s="18"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="22"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="16" t="s">
+      <c r="A56" s="21"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="12">
         <v>9066549545</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="G56" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H56" s="16" t="s">
+      <c r="H56" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I56" s="20"/>
-      <c r="J56" s="18"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="22"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="16" t="s">
+      <c r="A57" s="21"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="G57" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H57" s="16" t="s">
+      <c r="H57" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I57" s="20"/>
-      <c r="J57" s="18"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="22"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="16" t="s">
+      <c r="A58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="F58" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G58" s="16" t="s">
+      <c r="G58" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H58" s="16" t="s">
+      <c r="H58" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I58" s="20"/>
-      <c r="J58" s="18"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="22"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="16" t="s">
+      <c r="A59" s="21"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="F59" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G59" s="16" t="s">
+      <c r="G59" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H59" s="16" t="s">
+      <c r="H59" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I59" s="20"/>
-      <c r="J59" s="18"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="22"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="15"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="16" t="s">
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F60" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" s="16" t="s">
+      <c r="F60" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="H60" s="16" t="s">
+      <c r="H60" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="I60" s="20"/>
-      <c r="J60" s="18"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="22"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="15"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="16" t="s">
+      <c r="A61" s="21"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F61" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" s="16" t="s">
+      <c r="F61" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H61" s="16" t="s">
+      <c r="H61" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="I61" s="22"/>
-      <c r="J61" s="21"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="23"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="15">
+      <c r="A62" s="21">
         <v>7</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="F62" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G62" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="H62" s="16" t="s">
+      <c r="H62" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="I62" s="23" t="s">
+      <c r="I62" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="J62" s="15"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="16" t="s">
+      <c r="A63" s="21"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F63" s="19" t="s">
+      <c r="F63" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="G63" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H63" s="16" t="s">
+      <c r="H63" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I63" s="24"/>
-      <c r="J63" s="18"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="22"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="16" t="s">
+      <c r="A64" s="21"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="F64" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="G64" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H64" s="16" t="s">
+      <c r="H64" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I64" s="24"/>
-      <c r="J64" s="18"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="22"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="16" t="s">
+      <c r="A65" s="21"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="F65" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G65" s="16" t="s">
+      <c r="G65" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H65" s="16" t="s">
+      <c r="H65" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I65" s="24"/>
-      <c r="J65" s="18"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="22"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="16" t="s">
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F66" s="12">
         <v>9066549545</v>
       </c>
-      <c r="G66" s="16" t="s">
+      <c r="G66" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H66" s="16" t="s">
+      <c r="H66" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I66" s="24"/>
-      <c r="J66" s="18"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="22"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="15"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="16" t="s">
+      <c r="A67" s="21"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="F67" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G67" s="16" t="s">
+      <c r="G67" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H67" s="16" t="s">
+      <c r="H67" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I67" s="24"/>
-      <c r="J67" s="18"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="22"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="15"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="16" t="s">
+      <c r="A68" s="21"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="F68" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G68" s="16" t="s">
+      <c r="G68" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H68" s="16" t="s">
+      <c r="H68" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I68" s="24"/>
-      <c r="J68" s="18"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="22"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="15"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="16" t="s">
+      <c r="A69" s="21"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F69" s="16" t="s">
+      <c r="F69" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G69" s="16" t="s">
+      <c r="G69" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H69" s="16" t="s">
+      <c r="H69" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I69" s="24"/>
-      <c r="J69" s="18"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="22"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="16" t="s">
+      <c r="A70" s="21"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F70" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" s="16" t="s">
+      <c r="F70" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H70" s="16" t="s">
+      <c r="H70" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="I70" s="24"/>
-      <c r="J70" s="18"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="22"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="15"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="16" t="s">
+      <c r="A71" s="21"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F71" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G71" s="16" t="s">
+      <c r="F71" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H71" s="16" t="s">
+      <c r="H71" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I71" s="25"/>
-      <c r="J71" s="21"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="23"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="15">
+      <c r="A72" s="21">
         <v>8</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="F72" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G72" s="16" t="s">
+      <c r="G72" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H72" s="16" t="s">
+      <c r="H72" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="I72" s="23" t="s">
+      <c r="I72" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="J72" s="15"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="16" t="s">
+      <c r="A73" s="21"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F73" s="19" t="s">
+      <c r="F73" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="G73" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H73" s="16" t="s">
+      <c r="H73" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I73" s="24"/>
-      <c r="J73" s="18"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="22"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="15"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="16" t="s">
+      <c r="A74" s="21"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="G74" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H74" s="16" t="s">
+      <c r="H74" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I74" s="24"/>
-      <c r="J74" s="18"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="22"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="15"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="16" t="s">
+      <c r="A75" s="21"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="F75" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="G75" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H75" s="16" t="s">
+      <c r="H75" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I75" s="24"/>
-      <c r="J75" s="18"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="22"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="15"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="16" t="s">
+      <c r="A76" s="21"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F76" s="12">
         <v>9066549545</v>
       </c>
-      <c r="G76" s="16" t="s">
+      <c r="G76" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H76" s="16" t="s">
+      <c r="H76" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I76" s="24"/>
-      <c r="J76" s="18"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="22"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="16" t="s">
+      <c r="A77" s="21"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="F77" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="G77" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H77" s="16" t="s">
+      <c r="H77" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I77" s="24"/>
-      <c r="J77" s="18"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="22"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="16" t="s">
+      <c r="A78" s="21"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F78" s="16" t="s">
+      <c r="F78" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G78" s="16" t="s">
+      <c r="G78" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H78" s="16" t="s">
+      <c r="H78" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I78" s="24"/>
-      <c r="J78" s="18"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="22"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="16" t="s">
+      <c r="A79" s="21"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F79" s="16" t="s">
+      <c r="F79" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G79" s="16" t="s">
+      <c r="G79" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H79" s="16" t="s">
+      <c r="H79" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I79" s="24"/>
-      <c r="J79" s="18"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="22"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="16" t="s">
+      <c r="A80" s="21"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F80" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" s="16" t="s">
+      <c r="F80" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G80" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H80" s="16" t="s">
+      <c r="H80" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="I80" s="24"/>
-      <c r="J80" s="18"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="22"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="15"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="16" t="s">
+      <c r="A81" s="21"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F81" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G81" s="16" t="s">
+      <c r="F81" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H81" s="16" t="s">
+      <c r="H81" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I81" s="25"/>
-      <c r="J81" s="21"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="23"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="26">
+      <c r="A82" s="20">
         <v>9</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D82" s="15" t="s">
+      <c r="D82" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F82" s="16" t="s">
+      <c r="F82" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G82" s="16" t="s">
+      <c r="G82" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="H82" s="16" t="s">
+      <c r="H82" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="I82" s="23" t="s">
+      <c r="I82" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="J82" s="15"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="26"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="16" t="s">
+      <c r="A83" s="20"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F83" s="19" t="s">
+      <c r="F83" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="G83" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H83" s="16" t="s">
+      <c r="H83" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I83" s="24"/>
-      <c r="J83" s="18"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="22"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="26"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="16" t="s">
+      <c r="A84" s="20"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F84" s="16" t="s">
+      <c r="F84" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G84" s="16" t="s">
+      <c r="G84" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H84" s="16" t="s">
+      <c r="H84" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I84" s="24"/>
-      <c r="J84" s="18"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="22"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="26"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="16" t="s">
+      <c r="A85" s="20"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F85" s="16" t="s">
+      <c r="F85" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G85" s="16" t="s">
+      <c r="G85" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="H85" s="16" t="s">
+      <c r="H85" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="I85" s="24"/>
-      <c r="J85" s="18"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="22"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="26"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="16" t="s">
+      <c r="A86" s="20"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F86" s="12">
         <v>9066549545</v>
       </c>
-      <c r="G86" s="16" t="s">
+      <c r="G86" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H86" s="16" t="s">
+      <c r="H86" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I86" s="24"/>
-      <c r="J86" s="18"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="22"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="26"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="16" t="s">
+      <c r="A87" s="20"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F87" s="16" t="s">
+      <c r="F87" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G87" s="16" t="s">
+      <c r="G87" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H87" s="16" t="s">
+      <c r="H87" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I87" s="24"/>
-      <c r="J87" s="18"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="22"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="26"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="16" t="s">
+      <c r="A88" s="20"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F88" s="16" t="s">
+      <c r="F88" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G88" s="16" t="s">
+      <c r="G88" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H88" s="16" t="s">
+      <c r="H88" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I88" s="24"/>
-      <c r="J88" s="18"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="22"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="26"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="16" t="s">
+      <c r="A89" s="20"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F89" s="16" t="s">
+      <c r="F89" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G89" s="16" t="s">
+      <c r="G89" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H89" s="16" t="s">
+      <c r="H89" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I89" s="24"/>
-      <c r="J89" s="18"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="22"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="26"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="16" t="s">
+      <c r="A90" s="20"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F90" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G90" s="16" t="s">
+      <c r="F90" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G90" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H90" s="16" t="s">
+      <c r="H90" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="I90" s="24"/>
-      <c r="J90" s="18"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="22"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="26"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="16" t="s">
+      <c r="A91" s="20"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F91" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G91" s="16" t="s">
+      <c r="F91" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G91" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H91" s="16" t="s">
+      <c r="H91" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I91" s="25"/>
-      <c r="J91" s="21"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A82:A91"/>
-    <mergeCell ref="B82:B91"/>
-    <mergeCell ref="C82:C91"/>
-    <mergeCell ref="D82:D91"/>
-    <mergeCell ref="I82:I91"/>
+    <mergeCell ref="J2:J11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="I2:I11"/>
+    <mergeCell ref="J22:J31"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="I12:I21"/>
+    <mergeCell ref="J12:J21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="D22:D31"/>
+    <mergeCell ref="I22:I31"/>
+    <mergeCell ref="J42:J51"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="D32:D41"/>
+    <mergeCell ref="I32:I41"/>
+    <mergeCell ref="J32:J41"/>
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="C42:C51"/>
+    <mergeCell ref="D42:D51"/>
+    <mergeCell ref="I42:I51"/>
+    <mergeCell ref="J62:J71"/>
+    <mergeCell ref="A52:A61"/>
+    <mergeCell ref="B52:B61"/>
+    <mergeCell ref="C52:C61"/>
+    <mergeCell ref="D52:D61"/>
+    <mergeCell ref="I52:I61"/>
+    <mergeCell ref="J52:J61"/>
+    <mergeCell ref="A62:A71"/>
+    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="C62:C71"/>
+    <mergeCell ref="D62:D71"/>
+    <mergeCell ref="I62:I71"/>
     <mergeCell ref="J82:J91"/>
     <mergeCell ref="A72:A81"/>
     <mergeCell ref="B72:B81"/>
@@ -5189,54 +6463,17 @@
     <mergeCell ref="D72:D81"/>
     <mergeCell ref="I72:I81"/>
     <mergeCell ref="J72:J81"/>
-    <mergeCell ref="A62:A71"/>
-    <mergeCell ref="B62:B71"/>
-    <mergeCell ref="C62:C71"/>
-    <mergeCell ref="D62:D71"/>
-    <mergeCell ref="I62:I71"/>
-    <mergeCell ref="J62:J71"/>
-    <mergeCell ref="A52:A61"/>
-    <mergeCell ref="B52:B61"/>
-    <mergeCell ref="C52:C61"/>
-    <mergeCell ref="D52:D61"/>
-    <mergeCell ref="I52:I61"/>
-    <mergeCell ref="J52:J61"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="C42:C51"/>
-    <mergeCell ref="D42:D51"/>
-    <mergeCell ref="I42:I51"/>
-    <mergeCell ref="J42:J51"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="D32:D41"/>
-    <mergeCell ref="I32:I41"/>
-    <mergeCell ref="J32:J41"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="D22:D31"/>
-    <mergeCell ref="I22:I31"/>
-    <mergeCell ref="J22:J31"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="I12:I21"/>
-    <mergeCell ref="J12:J21"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="I2:I11"/>
-    <mergeCell ref="J2:J11"/>
+    <mergeCell ref="A82:A91"/>
+    <mergeCell ref="B82:B91"/>
+    <mergeCell ref="C82:C91"/>
+    <mergeCell ref="D82:D91"/>
+    <mergeCell ref="I82:I91"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I42 I52:I62 I72:I91">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5265,34 +6502,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5312,7 +6549,7 @@
       <c r="E2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="15" t="s">
         <v>151</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -5361,16 +6598,16 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="16" t="s">
         <v>160</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -5379,46 +6616,46 @@
       <c r="F4" s="1">
         <v>2341</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="1" t="s">
         <v>164</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="16" t="s">
         <v>160</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -5427,46 +6664,46 @@
       <c r="F6" s="1">
         <v>1234</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="1" t="s">
         <v>164</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="16">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="16" t="s">
         <v>155</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -5475,46 +6712,46 @@
       <c r="F8" s="1">
         <v>92342513566</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="1" t="s">
         <v>173</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="16">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="16" t="s">
         <v>155</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -5523,46 +6760,46 @@
       <c r="F10" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="1" t="s">
         <v>173</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="16">
         <v>7</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="16" t="s">
         <v>155</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -5571,46 +6808,46 @@
       <c r="F12" s="1">
         <v>73737273</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="1" t="s">
         <v>173</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="16">
         <v>8</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="16" t="s">
         <v>155</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -5619,92 +6856,92 @@
       <c r="F14" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="1" t="s">
         <v>173</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="A16" s="16">
         <v>9</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="16" t="s">
         <v>155</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="1" t="s">
         <v>173</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="16" t="s">
         <v>155</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -5713,37 +6950,1674 @@
       <c r="F18" s="1">
         <v>42342513566</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="10"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="1" t="s">
         <v>173</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9129AC45-17EF-4482-A4C6-13185706C4F7}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{7D4DD44B-5C87-43C5-99B1-72E4C87E4A8E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B624AC-A7FC-41AE-A267-067A2F8F3641}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{167EDE1C-6E72-471F-8F4E-227F48BE7BF6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39839786-B998-42CF-981A-9EF47168CD9C}">
+  <dimension ref="A1:J44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F21" s="38">
+        <v>44605</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F23" s="38">
+        <v>44605</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="38">
+        <v>44605</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F27" s="38">
+        <v>44604</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F29" s="38">
+        <v>44605</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F31" s="38">
+        <v>44604</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="I35" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J35" s="16"/>
+    </row>
+    <row r="36" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F37" s="40">
+        <v>45029</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="16"/>
+    </row>
+    <row r="38" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F38" s="40">
+        <v>45029</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="16"/>
+    </row>
+    <row r="39" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="I40" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F42" s="40">
+        <v>45046</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="16"/>
+    </row>
+    <row r="43" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F43" s="40">
+        <v>45046</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="16"/>
+    </row>
+    <row r="44" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="112">
+    <mergeCell ref="I35:I39"/>
+    <mergeCell ref="J35:J39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="H40:H44"/>
+    <mergeCell ref="I40:I44"/>
+    <mergeCell ref="J40:J44"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="A18:A19"/>
@@ -5792,470 +8666,18 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9129AC45-17EF-4482-A4C6-13185706C4F7}">
-  <dimension ref="A1:J7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{7D4DD44B-5C87-43C5-99B1-72E4C87E4A8E}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{7F4E28F8-A34B-43BD-A165-344DC18E17FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B624AC-A7FC-41AE-A267-067A2F8F3641}">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{167EDE1C-6E72-471F-8F4E-227F48BE7BF6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39839786-B998-42CF-981A-9EF47168CD9C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>